--- a/Fuctionality&Requirements/ProgramFunctionality/ClassTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/ClassTree.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B14C06-79ED-4682-900A-B7760F249620}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668800F-B2CB-4557-AF95-D08B2255BA98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="825" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassTreeSparePart" sheetId="1" r:id="rId1"/>
     <sheet name="FindClassWindow" sheetId="2" r:id="rId2"/>
     <sheet name="FilterCriteriaWindow" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="154">
   <si>
     <t>№</t>
   </si>
@@ -307,9 +308,6 @@
     <t>If the user clicks on the "View" item the next program should be opened for the selected element:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) class</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Edit" item the next program should be opened for the selected element:</t>
   </si>
   <si>
@@ -350,9 +348,6 @@
   </si>
   <si>
     <t>For the "Spare part" rows there should be the next elements of the context menu:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) spare_part</t>
   </si>
   <si>
     <t>The user should be able to move the "Find class" window.</t>
@@ -773,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,19 +800,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,68 +827,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -907,25 +854,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,11 +1211,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1297,11 +1274,11 @@
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
@@ -1318,172 +1295,172 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="35"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="35"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="47"/>
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="28"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="44"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -1493,312 +1470,312 @@
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="30"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="42"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="28"/>
+      <c r="C54" s="43"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="28"/>
+      <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="28"/>
+      <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="29"/>
+      <c r="C58" s="44"/>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="18"/>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="30"/>
+      <c r="C65" s="35"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="30"/>
+      <c r="C66" s="35"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="30"/>
+      <c r="C67" s="35"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="30"/>
+      <c r="C68" s="35"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="30"/>
+      <c r="C69" s="35"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="37" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="37" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="36" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="23"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="37" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73" s="22"/>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="37" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="56" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="37" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="37" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="35" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="30"/>
+      <c r="C81" s="35"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="30"/>
+      <c r="C82" s="35"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
@@ -1808,11 +1785,11 @@
       <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="23"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
@@ -1822,252 +1799,262 @@
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="30"/>
+      <c r="C89" s="35"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="34" t="s">
+      <c r="A90" s="35"/>
+      <c r="B90" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="30"/>
+      <c r="C90" s="35"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="35"/>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="A92" s="35"/>
       <c r="B92" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="30"/>
+      <c r="C92" s="35"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="35"/>
+      <c r="B93" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C93" s="35"/>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="30"/>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="35"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C95" s="35"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="30"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="30"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="22"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="35"/>
+      <c r="B97" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="23"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="19" t="s">
+      <c r="C97" s="35"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="35"/>
+      <c r="B98" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="35"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="35"/>
+      <c r="B99" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="30"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="34" t="s">
+      <c r="C99" s="35"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="35"/>
+      <c r="B100" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="35"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="35"/>
+      <c r="B101" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="35"/>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="35"/>
+      <c r="B102" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="35"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="35"/>
+      <c r="B103" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C103" s="35"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="35"/>
+      <c r="B104" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="35"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="35"/>
+      <c r="B105" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C105" s="35"/>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="35"/>
+      <c r="B106" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="35"/>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
+      <c r="B107" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="35"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
+      <c r="B108" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C108" s="35"/>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="35"/>
+      <c r="B109" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="35"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="35"/>
+      <c r="B110" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B151"," - (maint) class")</f>
+        <v xml:space="preserve"> - (maint) class</v>
+      </c>
+      <c r="C110" s="35"/>
+    </row>
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="22"/>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="22"/>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="22"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="35"/>
+      <c r="B114" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="35"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="35"/>
+      <c r="B115" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="30"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" s="30"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="30"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="30"/>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="30"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="30"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="30"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" s="30"/>
-    </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="30"/>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="30"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="30"/>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="30"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="30"/>
-    </row>
-    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="23"/>
-    </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="23"/>
-    </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="23"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="30"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" s="30"/>
+      <c r="C115" s="35"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="30"/>
+      <c r="C116" s="35"/>
     </row>
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
+      <c r="A117" s="35"/>
       <c r="B117" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C117" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="C117" s="35"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="30"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1076"," - (maint) spare_part")</f>
+        <v xml:space="preserve"> - (maint) spare_part</v>
+      </c>
+      <c r="C118" s="35"/>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C119" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="C119" s="35"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="30"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1076"," - (maint) spare_part")</f>
+        <v xml:space="preserve"> - (maint) spare_part</v>
+      </c>
+      <c r="C120" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="C81:C82"/>
@@ -2080,22 +2067,20 @@
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" location="FindClassWindow!A1" display="If the user clicks on the &quot;Find element in tree&quot; item the &quot;Find class&quot; window should appear." xr:uid="{9A550E6A-283E-4FBA-9544-246210128AEF}"/>
@@ -2136,102 +2121,102 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46" t="s">
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="23" t="s">
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="23" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="44"/>
-    </row>
-    <row r="10" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="23" t="s">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="23" t="s">
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="23" t="s">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="23" t="s">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="23" t="s">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="44"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2271,304 +2256,310 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
-        <v>119</v>
+      <c r="B8" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="48" t="s">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="44"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="48" t="s">
+      <c r="C13" s="48"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="49"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="51" t="s">
+      <c r="C15" s="48"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="49"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="51" t="s">
+      <c r="C16" s="48"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="49"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="51" t="s">
+      <c r="C17" s="48"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="49"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51" t="s">
+      <c r="C18" s="48"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="49"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51" t="s">
+      <c r="C19" s="48"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="49"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51" t="s">
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="49"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="51" t="s">
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="49"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52" t="s">
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="49"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="47" t="s">
+      <c r="C23" s="35"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="30"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="30"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="55" t="s">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="4" t="s">
+      <c r="C26" s="45"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="50" t="s">
+      <c r="C27" s="46"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="51" t="s">
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="32"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="51" t="s">
+      <c r="C29" s="46"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="51" t="s">
+      <c r="C30" s="46"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="32"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="51" t="s">
+      <c r="C31" s="47"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="52" t="s">
+      <c r="C32" s="45"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="50" t="s">
+      <c r="C33" s="46"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="20" t="s">
+      <c r="C34" s="46"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="32"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="51" t="s">
+      <c r="C35" s="47"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="52" t="s">
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="33"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="53" t="s">
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="44"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="44"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="48"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54" t="str">
+      <c r="A39" s="48"/>
+      <c r="B39" s="32" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$376","- (browse) filter [2]")</f>
         <v>- (browse) filter [2]</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="48"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="48"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="54" t="str">
+      <c r="A41" s="48"/>
+      <c r="B41" s="32" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$375","- (browse) filter [1]")</f>
         <v>- (browse) filter [1]</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="48"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="48"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="48"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="48"/>
+      <c r="B44" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="49"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51" t="s">
+      <c r="C44" s="48"/>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="49"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="52" t="s">
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="49"/>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="44"/>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="C42:C44"/>
     <mergeCell ref="A22:A23"/>
@@ -2579,12 +2570,6 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
